--- a/SuppXLS/Scen_COM_FR_ELE.xlsx
+++ b/SuppXLS/Scen_COM_FR_ELE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02DAC3-A97A-40A6-88DE-8DEAAC04EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26FD70C-8DAC-4E4A-AC25-D692A98B6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2606115-611A-4946-8404-A8F5FA253245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2606115-611A-4946-8404-A8F5FA253245}"/>
   </bookViews>
   <sheets>
     <sheet name="COM_FR_2023" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
     <t>NL</t>
   </si>
   <si>
-    <t>ELC_FIN</t>
+    <t>ELC_FIN,ELC_IND_FIN</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Scen_COM-FR_FromIER" xfId="1" xr:uid="{0FD1BA50-3E66-473D-8DB6-4BFD0AD16EB7}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,7 +987,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2551,9 +2551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2591,7 +2591,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2697,7 +2697,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2849,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D992DC-9029-47A6-9F10-209E6D6231A5}">
   <dimension ref="A4:K459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="O215" sqref="O215"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7570,12 +7570,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7723,15 +7720,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D2A56F-6048-4CC0-BBF0-A521C2E1F8A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E716287D-7EC0-4D97-A118-ECA26323280A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7755,17 +7763,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E716287D-7EC0-4D97-A118-ECA26323280A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D2A56F-6048-4CC0-BBF0-A521C2E1F8A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>